--- a/src/excel/productos.xlsx
+++ b/src/excel/productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\page1\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sistemas\Documents\projects\snack\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -39,28 +38,16 @@
     <t>valor</t>
   </si>
   <si>
-    <t>carimanola</t>
-  </si>
-  <si>
-    <t>CARIMAÑOLA CON CARNE x 10 und</t>
-  </si>
-  <si>
-    <t>CARIMAÑOLA CON POLLO x 10 un</t>
-  </si>
-  <si>
-    <t>CARIMAÑOLA CON QUESO x 10 und</t>
-  </si>
-  <si>
-    <t>EMPANADA DE MAIZ CON CARNE x 10</t>
-  </si>
-  <si>
-    <t>empmaiz</t>
-  </si>
-  <si>
-    <t>EMPANADA DE MAIZ CON POLLO x 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPANADA DE MAIZ CON QUESO x 10 und </t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>/images/</t>
+  </si>
+  <si>
+    <t>SALCHIRROLLOS con CHORIZO x 20 und</t>
+  </si>
+  <si>
+    <t>salchirollos</t>
   </si>
 </sst>
 </file>
@@ -385,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +383,7 @@
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,90 +396,32 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>8000</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>8000</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
